--- a/data/trans_bre/P23_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_3_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,46%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,62%</t>
+          <t>3,58%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-3,07%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7,34%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-1,6%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,69%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 5,36</t>
+          <t>-3,26; 5,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 5,2</t>
+          <t>-4,75; 4,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 3,57</t>
+          <t>-5,87; 3,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 4,0</t>
+          <t>-4,32; 5,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-26,48; 34,99</t>
+          <t>-4,2; 3,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,69; 39,56</t>
+          <t>-5,0; 4,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-26,56; 25,58</t>
+          <t>-17,27; 36,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-21,07; 23,96</t>
+          <t>-23,54; 35,02</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-27,82; 21,28</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-20,23; 37,99</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-19,93; 21,64</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-20,05; 20,58</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>2,94</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>21,52%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-4,87%</t>
+          <t>25,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>24,64%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-4,56%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11,44%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>16,96%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-4,9%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 8,61</t>
+          <t>-0,98; 9,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 8,36</t>
+          <t>-1,07; 8,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 3,6</t>
+          <t>-6,3; 3,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 10,54</t>
+          <t>-3,22; 6,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 62,31</t>
+          <t>-4,35; 10,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 70,37</t>
+          <t>-8,19; 6,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,68; 30,9</t>
+          <t>-5,34; 68,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,46; 68,93</t>
+          <t>-6,19; 71,04</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-33,05; 28,33</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-17,39; 53,1</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-21,41; 75,45</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-36,54; 42,74</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,92</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,01</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-7,29</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-20,66%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-26,48%</t>
+          <t>-18,72%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,45%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-27,34%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-34,32%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 5,1</t>
+          <t>-13,36; 5,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 8,24</t>
+          <t>-7,46; 8,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 2,96</t>
+          <t>-12,7; 2,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-17,84; 3,29</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-53,21; 40,55</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-40,45; 79,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-60,61; 30,41</t>
+          <t>-54,91; 39,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-40,4; 80,35</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-61,55; 27,23</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-65,6; 25,97</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-5,7%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>11,43%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-6,07%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3,12%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2,35%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-2,03%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 4,29</t>
+          <t>-1,27; 5,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 4,78</t>
+          <t>-1,15; 4,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 1,91</t>
+          <t>-3,89; 2,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 4,11</t>
+          <t>-2,75; 4,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 28,02</t>
+          <t>-3,3; 3,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 36,1</t>
+          <t>-4,35; 3,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,18; 13,58</t>
+          <t>-7,01; 33,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,3; 24,56</t>
+          <t>-6,71; 36,0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-21,62; 14,84</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-14,27; 25,51</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-15,85; 23,3</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-18,11; 16,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P23_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_3_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,58</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,52</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,33</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>7,28%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>3,58%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-3,07%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>7,34%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-1,6%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-1,69%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.8773979868573173</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.8788716920225925</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.5896450589907232</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.512693448049998</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.3049268749856948</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.3619579985431803</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.04960693098714421</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.0554681402895298</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.03473466517482704</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.08324280929012598</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.01596483084667075</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.01609161562770196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,26; 5,36</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,75; 4,72</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-5,87; 3,14</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-4,32; 5,79</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-4,2; 3,59</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-5,0; 4,24</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-17,27; 36,57</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-23,54; 35,02</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-27,82; 21,28</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-20,23; 37,99</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-19,93; 21,64</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-20,05; 20,58</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.548409541973034</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.181567428651372</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-6.244913913237492</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-4.237895237525418</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-4.198813174588496</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-5.136582328374169</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2181814063507103</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2104977488610509</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.3044217540051345</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1945498364874203</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.1992685137523743</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.2016913271570706</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.283277975526841</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.140111352210358</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.993859471821943</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>6.081614355199083</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3.592182694207851</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>4.034293409217107</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.3571118933420959</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.3777503111935753</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.1978044770118897</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.3910915723710487</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.2164442869641275</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.199822202722103</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,13</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,6</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,68</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,82</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,94</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-0,97</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>25,27%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>24,64%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-4,56%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>11,44%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>16,96%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-4,9%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,98; 9,26</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,07; 8,55</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-6,3; 3,57</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,22; 6,86</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-4,35; 10,48</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-8,19; 6,83</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-5,34; 68,59</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-6,19; 71,04</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-33,05; 28,33</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-17,39; 53,1</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-21,41; 75,45</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-36,54; 42,74</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.239442208401394</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3.976034553869104</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.6210803106942386</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.897367420021842</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>2.944788598860817</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.8947897043249275</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.1949727039459538</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.2763367516792372</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.0416847102318441</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.1184621187618346</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.1695791840909653</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.04531650853284626</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,67</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-4,22</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-7,29</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-18,72%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3,45%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-27,34%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-34,32%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-2.254636774900837</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.7185977661187589</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-6.378395924141422</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.237945642862418</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-4.348948760800825</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-8.345604201447285</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1099857106713105</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.0412410187659589</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3295657505517842</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1807684309312989</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.214143668332317</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.3645876176504663</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-13,36; 5,7</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,46; 8,54</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-12,7; 2,97</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-17,84; 3,29</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-54,91; 39,95</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-40,4; 80,35</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-61,55; 27,23</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-65,6; 25,97</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.221327573137289</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.918347017941141</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.585880216330404</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.160317814994308</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>10.47999613347713</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>6.767609756514203</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.5917122905504609</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.7645531034004773</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.2910405356387583</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.5281091913606561</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.7545030429048649</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.4091161109597076</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,78</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,76</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,97</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-0,44</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>10,54%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>11,43%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-6,07%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>3,12%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>2,35%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-2,03%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-3.808974353434483</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.3960187533705362</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-4.525037243077263</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-7.26901786922014</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.2052368070345967</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.02608417194454622</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.292445208229433</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.3434491381540341</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,27; 5,14</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,15; 4,77</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,89; 2,01</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,75; 4,03</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-3,3; 3,95</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-4,35; 3,32</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-7,01; 33,12</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-6,71; 36,0</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-21,62; 14,84</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-14,27; 25,51</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-15,85; 23,3</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-18,11; 16,85</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.96923730082677</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.546873252149997</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-12.92017165307452</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-17.9476519720826</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.5652506735710503</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4067339363277274</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.6267345628244708</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.6537856914127275</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>4.819808229951706</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.396781895946321</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.485586581013605</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>3.287646538428775</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.3827013864959455</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.7616372015826682</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.2484542662810348</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.2861906445446771</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.285560094587179</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.036136118518978</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-1.010608410344862</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.6718102245502483</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.4383192119866958</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.4126524138889309</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.07405188167979315</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1341163422915879</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.06327502464940329</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.03803815189242412</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.02346914776464997</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.01891653486746702</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.968122881229098</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.719825612523463</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.886718801981332</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.724374530607088</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-3.301943039360699</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-4.412217861964709</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1016481810624343</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.04244736133440442</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.2191062953794049</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1412173218103592</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.1585325192102701</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.1863482835660115</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.890871065004636</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.92783537615333</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.045348636695717</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.270952434346378</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>3.948448591748881</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>3.317988406063608</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.3099036946973444</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.3692715017309529</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.1484196557714399</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.2642110435661456</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.2329726074071139</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.1639205863271422</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
